--- a/角色卡/FAG非玩家角色卡v0.5.xlsx
+++ b/角色卡/FAG非玩家角色卡v0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA61AED2-BF95-439E-8497-A7EE249CCDEB}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8F7F29-AB46-490B-82E6-EE2E6E446C0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>体型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术节</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -620,37 +624,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -722,6 +695,19 @@
       </left>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -740,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -759,141 +745,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1180,44 +1161,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C241CB40-9026-4A44-8919-385CA5D72303}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="I2" s="37" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="I2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="26"/>
+      <c r="M2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="M3" s="20" t="s">
         <v>41</v>
       </c>
@@ -1229,14 +1210,14 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="M4" s="10"/>
       <c r="N4" s="19"/>
     </row>
@@ -1244,16 +1225,16 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
       <c r="M5" s="17"/>
       <c r="N5" s="18"/>
     </row>
@@ -1265,12 +1246,12 @@
       <c r="D6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
       <c r="M6" s="10"/>
       <c r="N6" s="6"/>
     </row>
@@ -1278,42 +1259,42 @@
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
       <c r="M7" s="17"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="10"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
       <c r="M9" s="17"/>
       <c r="N9" s="18"/>
     </row>
@@ -1322,18 +1303,18 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="M11" s="17"/>
       <c r="N11" s="18"/>
     </row>
@@ -1515,8 +1496,13 @@
         <f>G16</f>
         <v>0</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5">
+        <f>FLOOR(I15/3-1,1)</f>
+        <v>-1</v>
+      </c>
       <c r="H17" s="12" t="s">
         <v>45</v>
       </c>
@@ -1591,57 +1577,57 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="M20" s="37" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="M20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="65"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="5"/>
@@ -1649,57 +1635,49 @@
         <v>30</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="7"/>
       <c r="D24" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="65"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="9"/>
       <c r="D25" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="67"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="C21:K21"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B23:B25"/>
@@ -1714,6 +1692,14 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C21:K21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/角色卡/FAG非玩家角色卡v0.5.xlsx
+++ b/角色卡/FAG非玩家角色卡v0.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8F7F29-AB46-490B-82E6-EE2E6E446C0C}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B31DA5-E719-4CBB-92CB-774EF06E6F88}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抗魔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>耐久</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,6 +262,9 @@
   <si>
     <t>魔术节</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉</t>
   </si>
 </sst>
 </file>
@@ -726,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -734,7 +733,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -751,12 +749,76 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -785,28 +847,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,58 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1169,515 +1167,514 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="I2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="26"/>
-      <c r="M2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="26"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="29"/>
+      <c r="M2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="21" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="19" t="s">
         <v>40</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="19"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
-      <c r="M8" s="10"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="10"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
         <f>C15*2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12">
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f>K15</f>
         <v>0</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="5">
         <f>G13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>43</v>
+      <c r="F13" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G13" s="5">
         <f>K15*2</f>
         <v>0</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="5">
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="6">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="8">
-        <f>K15</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="15" t="s">
+      <c r="I16">
+        <f>C15*2+G15</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="7">
-        <f>C15*2+G15</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f>C15*2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>44</v>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <f>MIN(C16,E16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="5">
         <f>G16</f>
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>57</v>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="G17" s="5">
         <f>FLOOR(I15/3-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>45</v>
+      <c r="H17" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I17" s="5">
         <v>30</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>46</v>
+      <c r="J17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K17" s="6">
         <v>50</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-    </row>
-    <row r="19" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>52</v>
+      <c r="H19" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>53</v>
+      <c r="J19" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+      <c r="M20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="51"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="M20" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="65"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C21:K21"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B23:B25"/>
@@ -1694,12 +1691,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="M21:N25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="C21:K21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
